--- a/en/docs/Practice_sheet_for_scrum_development.xlsx
+++ b/en/docs/Practice_sheet_for_scrum_development.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F813F9-8834-499D-9749-57FDEB9049EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB82B815-21A9-4B05-A715-F251F5E955A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -618,11 +618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* If any operational points are unclear, the initial response is delayed if a lot of correspondence is needed (emails, Q&amp;A, etc.)
-* If misunderstandings occur during this correspondence, getting on the same page is a lengthy and laborious process that wastes man-hours</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* As there is now an environment where simple questions can be asked easily, laborious Q&amp;A and emailing are no longer needed, leaving more time for development tasks
 * There are fewer misunderstandings than before as team members can discuss matters to make sure they are on the same page
 * The quality of information from the PO and other operational experts is now higher (as information is now being provided in a way that makes it easy for the development team to understand what the PO and other operational experts have in mind)</t>
@@ -753,6 +748,11 @@
 * As the layers are separate, it is easier for team members to be on the same page about the work that needs to be done for each layer
 * As the layers and responsibilities are clearly separated, it is clear which areas need to be fixed during development
 * The business logic is maintained well, as variance does not occur in the code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The initial response is late if it is done via email or QA.
+* If misunderstandings occur during this correspondence, getting on the same page is a lengthy and laborious process that wastes man-hours</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4980,7 +4980,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -6179,19 +6179,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6211,7 +6211,7 @@
         <v>90</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>95</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>117</v>
@@ -6359,7 +6359,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>97</v>
@@ -6368,7 +6368,7 @@
         <v>72</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>119</v>
@@ -6379,7 +6379,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>53</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="16" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>33</v>
@@ -6422,7 +6422,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>76</v>
@@ -6431,7 +6431,7 @@
         <v>101</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6451,7 +6451,7 @@
         <v>102</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="209.4" customHeight="1" x14ac:dyDescent="0.2">
@@ -6491,7 +6491,7 @@
         <v>104</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>105</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>58</v>
@@ -6531,7 +6531,7 @@
         <v>106</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>107</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6571,7 +6571,7 @@
         <v>108</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/en/docs/Practice_sheet_for_scrum_development.xlsx
+++ b/en/docs/Practice_sheet_for_scrum_development.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB82B815-21A9-4B05-A715-F251F5E955A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096ABD5-84D2-46D7-B2AC-B4D567A25E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,28 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one partner
-* Scrum master and partner had strong technical skills
-* The second-year and third-year programmers had operational knowledge but did not have much development experience</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one partner
-* The third-year programmer and one second-year programmer had operational knowledge, but the other members did not have much
-* The third-year programmer and second-year programmer with operational knowledge tended to lead investigation tasks such as those related to operations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one partner
-* There was an imbalance in the technical skill level of the members</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one partner
-* Only the scrum master was knowledgeable about scrums</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* Development team consists of one seventh-year programmer, one fourth-year programmer and one new programmer (all full-time)
 * All programmers work on development and all except the new programmer perform reviews</t>
     <phoneticPr fontId="1"/>
@@ -227,14 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* The code created by the technically skilled team members lacked operational considerations and many areas had to be rewritten
-* The code created by the team members with strong operational knowledge also had to be rewritten in many areas because of issues from a technical standpoint that were flagged during reviews
-* All of the members' code was eventually of a high quality as a result of the reviews, but the quality was not high initially
-* The technically skilled team members were able to write code, but their lack of operational knowledge created a bottleneck, which meant that tasks such as investigation could not be done
-* The team members with strong operational knowledge wanted to write code, but performed tasks such as investigation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* There was a gap in technical skill between the team members, and some members could not picture how things needed to be implemented in technical areas that were different from those they had worked on before (e.g. the difference between screen implementation and the HTTP communication level)
 * Tasks were divided into small units no larger than one hour each, but work took longer than expected because team members could not picture how things needed to be implemented
 * A lot of time was spent on investigations</t>
@@ -314,18 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* Filling the gap in technical skills
-* Reducing the time needed for code reviews
-* Elimination of situations where only certain people have certain operational knowledge or the ability to perform a certain task</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Elimination of situations where only certain people have certain operational knowledge or the ability to perform investigation tasks
-* Improvement of operational knowledge within the team
-* Improvement of quality of deliverables</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* Improvement of the team's technical skills
 * Reducing the gap between the time estimated for each task and the actual time taken
 * Reducing the time needed for investigations by each team member</t>
@@ -380,17 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* The development team works in a different location from the operational experts (PO and client)
-* This means that there is a physical distance between the development team and operational experts, including the PO
-* There are no operational experts in the development team</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Immediately resolving operational points that are unclear to members of the development team
-* Preventing misunderstandings between the team and the PO and other operational experts and facilitating more communication</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* Ensuring fast course correction by making the status of the scrum team's activities known
 * Sharing what the product owner has in mind</t>
     <phoneticPr fontId="1"/>
@@ -433,17 +380,6 @@
   </si>
   <si>
     <t>Execution method of practices</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* After tasks are assigned in the daily scrum, each programmer decides which tasks will be carried out by pair programming
-* Pairs must be different from the previous day if at all possible
-* It is not necessary to perform all tasks in pairs (difficult operational or technical tasks should be prioritized)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Team members with operational knowledge work together with those who do not have this knowledge during investigations (applying the principles of pair programming to investigations)
-* It is not necessary to perform all investigation work in pairs (difficult operational work or work that only certain people can do should be prioritized)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -511,17 +447,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* The PO and other operational experts participate in daily scrums
-* The team phones these parties, using speaker phone so that the whole team can hear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* The product owner is asked to participate in daily scrums</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Operational questions and technical issues are explained on the whiteboard each day
-* The whiteboard is also used to get on the same page with the product owner about points such as the functions and screens that will be created during sprint planning</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -557,18 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* There are fewer gaps in operational knowledge that result in situations where only certain people can do certain tasks
-* There are now more members who can do investigation tasks, reducing delays in post-investigation tasks
-* Deliverables are now of a higher quality</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The quality of the code was improved
-* Technical skills and operational knowledge is now shared among the team, eliminating situations where only certain people can do certain tasks
-* Team members can now handle a wider range of tasks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* Errors are resolved faster as more specific information is available than that found by researching online, etc.
 * Tips shared among the team are not forgotten as easily</t>
     <phoneticPr fontId="1"/>
@@ -615,12 +529,6 @@
   <si>
     <t>* The load of reviewers has been lightened
 * It is now possible to prevent situations where large amounts of backtracking are needed, as minor feedback about code can be given</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* As there is now an environment where simple questions can be asked easily, laborious Q&amp;A and emailing are no longer needed, leaving more time for development tasks
-* There are fewer misunderstandings than before as team members can discuss matters to make sure they are on the same page
-* The quality of information from the PO and other operational experts is now higher (as information is now being provided in a way that makes it easy for the development team to understand what the PO and other operational experts have in mind)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -703,12 +611,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* One scrum master and four development team members
-* Each team member was assigned a story to be executed in the sprint, and individual design work and tasks were planned and decomposed
-* There was a large imbalance in the operational knowledge and technical skill level of the team members</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* The tasks for the day that are assigned in the sprint plan are broken down further into small tasks around 30 minutes long (this is done by each member before the daily scrum)
 * Tasks are assigned using a task management tool based on the Kanban method and shared at the morning and evening scrums</t>
     <phoneticPr fontId="1"/>
@@ -753,6 +655,104 @@
   <si>
     <t>* The initial response is late if it is done via email or QA.
 * If misunderstandings occur during this correspondence, getting on the same page is a lengthy and laborious process that wastes man-hours</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Filling the gap in technical skills
+* Reducing the time needed for code reviews
+* Elimination of situations where only certain people have certain business knowledge or the ability to perform a certain task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* After tasks are assigned in the daily scrum, each programmer decides which tasks will be carried out by pair programming
+* Pairs must be different from the previous day if at all possible
+* It is not necessary to perform all tasks in pairs (difficult business or technical tasks should be prioritized)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The quality of the code was improved
+* Technical skills and business knowledge is now shared among the team, eliminating situations where only certain people can do certain tasks
+* Team members can now handle a wider range of tasks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Team members with business knowledge work together with those who do not have this knowledge during investigations (applying the principles of pair programming to investigations)
+* It is not necessary to perform all investigation work in pairs (difficult business work or work that only certain people can do should be prioritized)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* There are fewer gaps in business knowledge that result in situations where only certain people can do certain tasks
+* There are now more members who can do investigation tasks, reducing delays in post-investigation tasks
+* Deliverables are now of a higher quality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The development team works in a different location from the business experts (PO and client)
+* This means that there is a physical distance between the development team and business experts, including the PO
+* There are no business experts in the development team</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Immediately resolving business points that are unclear to members of the development team
+* Preventing misunderstandings between the team and the PO and other business experts and facilitating more communication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The PO and other business experts participate in daily scrums
+* The team phones these parties, using speaker phone so that the whole team can hear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* As there is now an environment where simple questions can be asked easily, laborious Q&amp;A and emailing are no longer needed, leaving more time for development tasks
+* There are fewer misunderstandings than before as team members can discuss matters to make sure they are on the same page
+* The quality of information from the PO and other business  experts is now higher (as information is now being provided in a way that makes it easy for the development team to understand what the PO and other business experts have in mind)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Business questions and technical issues are explained on the whiteboard each day
+* The whiteboard is also used to get on the same page with the product owner about points such as the functions and screens that will be created during sprint planning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The code created by the technically skilled team members lacked business considerations and many areas had to be rewritten
+* The code created by the team members with strong business knowledge also had to be rewritten in many areas because of issues from a technical standpoint that were flagged during reviews
+* All of the members' code was eventually of a high quality as a result of the reviews, but the quality was not high initially
+* The technically skilled team members were able to write code, but their lack of business knowledge created a bottleneck, which meant that tasks such as investigation could not be done
+* The team members with strong business knowledge wanted to write code, but performed tasks such as investigation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Elimination of situations where only certain people have certain business knowledge or the ability to perform investigation tasks
+* Improvement of business knowledge within the team
+* Improvement of quality of deliverables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* One scrum master and four development team members
+* Each team member was assigned a story to be executed in the sprint, and individual design work and tasks were planned and decomposed
+* There was a large imbalance in the business knowledge and technical skill level of the team members</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* Scrum master and collaborator had strong technical skills
+* The second-year and third-year programmers had business knowledge but did not have much development experience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* The third-year programmer and one second-year programmer had business knowledge, but the other members did not have much
+* The third-year programmer and second-year programmer with business knowledge tended to lead investigation tasks such as those related to operations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* There was an imbalance in the technical skill level of the members</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* Only the scrum master was knowledgeable about scrums</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4980,7 +4980,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="9" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -6102,16 +6102,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6122,16 +6122,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="245.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -6139,19 +6139,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.2">
@@ -6159,19 +6159,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6179,19 +6179,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6199,19 +6199,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6222,16 +6222,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6239,19 +6239,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6262,16 +6262,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6282,16 +6282,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.2">
@@ -6302,16 +6302,16 @@
         <v>27</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6319,19 +6319,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6342,16 +6342,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6359,19 +6359,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6379,39 +6379,39 @@
         <v>15</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="232.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -6419,19 +6419,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6439,19 +6439,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6459,19 +6459,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="209.4" customHeight="1" x14ac:dyDescent="0.2">
@@ -6479,39 +6479,39 @@
         <v>18</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6519,19 +6519,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6539,19 +6539,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6559,19 +6559,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/en/docs/Practice_sheet_for_scrum_development.xlsx
+++ b/en/docs/Practice_sheet_for_scrum_development.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096ABD5-84D2-46D7-B2AC-B4D567A25E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCA406-C753-43C0-9A86-B97843EFEF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
-    <sheet name="Practice sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Practice collecion" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$AI$39</definedName>
-    <definedName name="Z_026A7AE2_67A5_4548_A903_6286B650CDBC_.wvu.Rows" localSheetId="1" hidden="1">'Practice sheet'!#REF!</definedName>
+    <definedName name="Z_026A7AE2_67A5_4548_A903_6286B650CDBC_.wvu.Rows" localSheetId="1" hidden="1">'Practice collecion'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -532,12 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* There has been positive feedback that the work that needs to be done is clearly defined and easy for team members to act on
-* If tasks are broken down into units that are too small, it takes a lot of work to write up each task based on its completion conditions
-→The team plans to try executing operations by note rather than by ticket and providing supplementary information on completion conditions through communication to reduce the load</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* The aims were achieved</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -584,18 +578,155 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>* The tasks for the day that are assigned in the sprint plan are broken down further into small tasks around 30 minutes long (this is done by each member before the daily scrum)
+* Tasks are assigned using a task management tool based on the Kanban method and shared at the morning and evening scrums</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* At sprint planning meetings, tasks are assigned in small units (several hours to a day at maximum)
+* The Kanban method is used as a task management tool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Each sprint was a two-week cycle
+* Meetings with the client (including reviews of deliverables) were held weekly</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Setting of maximum patch size for code reviews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version 1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* A (Action) is added to KPT
+* Actions are not vague points such as "Improve X"; they include specific, actionable points such as "Do Y"
+* The person/people who will carry out the action (a specific team member, the whole team, etc.) are designated to ensure that the action is carried out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The team's technical skills have improved
+* Investigation times are now shorter and closer to the estimated time as samples can be referred to during implementation
+* At first, one technically skilled team member made most of the samples, but other team members are now actively involved in creating samples, which has made the team as a whole more productive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The responsibilities at each layer are clearly distinguished, making design easier
+* As the layers are separate, it is easier for team members to be on the same page about the work that needs to be done for each layer
+* As the layers and responsibilities are clearly separated, it is clear which areas need to be fixed during development
+* The business logic is maintained well, as variance does not occur in the code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The initial response is late if it is done via email or QA.
+* If misunderstandings occur during this correspondence, getting on the same page is a lengthy and laborious process that wastes man-hours</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Filling the gap in technical skills
+* Reducing the time needed for code reviews
+* Elimination of situations where only certain people have certain business knowledge or the ability to perform a certain task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* After tasks are assigned in the daily scrum, each programmer decides which tasks will be carried out by pair programming
+* Pairs must be different from the previous day if at all possible
+* It is not necessary to perform all tasks in pairs (difficult business or technical tasks should be prioritized)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The quality of the code was improved
+* Technical skills and business knowledge is now shared among the team, eliminating situations where only certain people can do certain tasks
+* Team members can now handle a wider range of tasks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Team members with business knowledge work together with those who do not have this knowledge during investigations (applying the principles of pair programming to investigations)
+* It is not necessary to perform all investigation work in pairs (difficult business work or work that only certain people can do should be prioritized)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* There are fewer gaps in business knowledge that result in situations where only certain people can do certain tasks
+* There are now more members who can do investigation tasks, reducing delays in post-investigation tasks
+* Deliverables are now of a higher quality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The development team works in a different location from the business experts (PO and client)
+* This means that there is a physical distance between the development team and business experts, including the PO
+* There are no business experts in the development team</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Immediately resolving business points that are unclear to members of the development team
+* Preventing misunderstandings between the team and the PO and other business experts and facilitating more communication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The PO and other business experts participate in daily scrums
+* The team phones these parties, using speaker phone so that the whole team can hear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Business questions and technical issues are explained on the whiteboard each day
+* The whiteboard is also used to get on the same page with the product owner about points such as the functions and screens that will be created during sprint planning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* The code created by the technically skilled team members lacked business considerations and many areas had to be rewritten
+* The code created by the team members with strong business knowledge also had to be rewritten in many areas because of issues from a technical standpoint that were flagged during reviews
+* All of the members' code was eventually of a high quality as a result of the reviews, but the quality was not high initially
+* The technically skilled team members were able to write code, but their lack of business knowledge created a bottleneck, which meant that tasks such as investigation could not be done
+* The team members with strong business knowledge wanted to write code, but performed tasks such as investigation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Elimination of situations where only certain people have certain business knowledge or the ability to perform investigation tasks
+* Improvement of business knowledge within the team
+* Improvement of quality of deliverables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* One scrum master and four development team members
+* Each team member was assigned a story to be executed in the sprint, and individual design work and tasks were planned and decomposed
+* There was a large imbalance in the business knowledge and technical skill level of the team members</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* Scrum master and collaborator had strong technical skills
+* The second-year and third-year programmers had business knowledge but did not have much development experience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* The third-year programmer and one second-year programmer had business knowledge, but the other members did not have much
+* The third-year programmer and second-year programmer with business knowledge tended to lead investigation tasks such as those related to operations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* There was an imbalance in the technical skill level of the members</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
+* Only the scrum master was knowledgeable about scrums</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Team members became to ask simple questions easily, which eliminates the need for time-consuming Q&amp;As and emails, and frees up more time for development tasks.
+* There are fewer misunderstandings than before as team members can discuss matters to make sure they are on the same page
+* The quality of information from the PO and other business  experts is now higher (as information is now being provided in a way that makes it easy for the development team to understand what the PO and other business experts have in mind)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">* There is a significant gap in technical skills and experience among the team members
-* The end client, who does not have practical experience with Java, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>is also on the development team</t>
+      <t xml:space="preserve">* There has been positive feedback that the work that needs to be done is clearly defined and easy for team members to act on
+* If tasks are broken down into units that are too small, it takes a lot of work to write up each task based on its completion conditions
+</t>
     </r>
     <r>
       <rPr>
@@ -605,154 +736,42 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The team plans to try executing operations by note rather than by ticket and providing supplementary information on completion conditions through communication to reduce the load</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* There is a significant gap in technical skills and experience among the team members
+* The end client, who does not have practical experience with Java, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is also on the development team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">
 * Our newer team members also lack knowledge and practical experience with Java</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The tasks for the day that are assigned in the sprint plan are broken down further into small tasks around 30 minutes long (this is done by each member before the daily scrum)
-* Tasks are assigned using a task management tool based on the Kanban method and shared at the morning and evening scrums</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* At sprint planning meetings, tasks are assigned in small units (several hours to a day at maximum)
-* The Kanban method is used as a task management tool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Each sprint was a two-week cycle
-* Meetings with the client (including reviews of deliverables) were held weekly</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>Setting of maximum patch size for code reviews</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version 1.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* A (Action) is added to KPT
-* Actions are not vague points such as "Improve X"; they include specific, actionable points such as "Do Y"
-* The person/people who will carry out the action (a specific team member, the whole team, etc.) are designated to ensure that the action is carried out</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The team's technical skills have improved
-* Investigation times are now shorter and closer to the estimated time as samples can be referred to during implementation
-* At first, one technically skilled team member made most of the samples, but other team members are now actively involved in creating samples, which has made the team as a whole more productive</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The responsibilities at each layer are clearly distinguished, making design easier
-* As the layers are separate, it is easier for team members to be on the same page about the work that needs to be done for each layer
-* As the layers and responsibilities are clearly separated, it is clear which areas need to be fixed during development
-* The business logic is maintained well, as variance does not occur in the code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The initial response is late if it is done via email or QA.
-* If misunderstandings occur during this correspondence, getting on the same page is a lengthy and laborious process that wastes man-hours</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Filling the gap in technical skills
-* Reducing the time needed for code reviews
-* Elimination of situations where only certain people have certain business knowledge or the ability to perform a certain task</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* After tasks are assigned in the daily scrum, each programmer decides which tasks will be carried out by pair programming
-* Pairs must be different from the previous day if at all possible
-* It is not necessary to perform all tasks in pairs (difficult business or technical tasks should be prioritized)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The quality of the code was improved
-* Technical skills and business knowledge is now shared among the team, eliminating situations where only certain people can do certain tasks
-* Team members can now handle a wider range of tasks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Team members with business knowledge work together with those who do not have this knowledge during investigations (applying the principles of pair programming to investigations)
-* It is not necessary to perform all investigation work in pairs (difficult business work or work that only certain people can do should be prioritized)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* There are fewer gaps in business knowledge that result in situations where only certain people can do certain tasks
-* There are now more members who can do investigation tasks, reducing delays in post-investigation tasks
-* Deliverables are now of a higher quality</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The development team works in a different location from the business experts (PO and client)
-* This means that there is a physical distance between the development team and business experts, including the PO
-* There are no business experts in the development team</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Immediately resolving business points that are unclear to members of the development team
-* Preventing misunderstandings between the team and the PO and other business experts and facilitating more communication</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The PO and other business experts participate in daily scrums
-* The team phones these parties, using speaker phone so that the whole team can hear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* As there is now an environment where simple questions can be asked easily, laborious Q&amp;A and emailing are no longer needed, leaving more time for development tasks
-* There are fewer misunderstandings than before as team members can discuss matters to make sure they are on the same page
-* The quality of information from the PO and other business  experts is now higher (as information is now being provided in a way that makes it easy for the development team to understand what the PO and other business experts have in mind)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Business questions and technical issues are explained on the whiteboard each day
-* The whiteboard is also used to get on the same page with the product owner about points such as the functions and screens that will be created during sprint planning</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* The code created by the technically skilled team members lacked business considerations and many areas had to be rewritten
-* The code created by the team members with strong business knowledge also had to be rewritten in many areas because of issues from a technical standpoint that were flagged during reviews
-* All of the members' code was eventually of a high quality as a result of the reviews, but the quality was not high initially
-* The technically skilled team members were able to write code, but their lack of business knowledge created a bottleneck, which meant that tasks such as investigation could not be done
-* The team members with strong business knowledge wanted to write code, but performed tasks such as investigation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Elimination of situations where only certain people have certain business knowledge or the ability to perform investigation tasks
-* Improvement of business knowledge within the team
-* Improvement of quality of deliverables</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* One scrum master and four development team members
-* Each team member was assigned a story to be executed in the sprint, and individual design work and tasks were planned and decomposed
-* There was a large imbalance in the business knowledge and technical skill level of the team members</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* Scrum master and collaborator had strong technical skills
-* The second-year and third-year programmers had business knowledge but did not have much development experience</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* The third-year programmer and one second-year programmer had business knowledge, but the other members did not have much
-* The third-year programmer and second-year programmer with business knowledge tended to lead investigation tasks such as those related to operations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* There was an imbalance in the technical skill level of the members</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* Only the scrum master was knowledgeable about scrums</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -764,7 +783,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,93 +827,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -903,14 +839,6 @@
       <color theme="10"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1103,7 +1031,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
@@ -1112,10 +1039,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1428,1518 +1438,1518 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -3009,11 +3019,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3023,11 +3033,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -3036,24 +3046,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3067,90 +3077,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="42" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="15" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="44" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -3798,9 +3808,9 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" kern="100">
               <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Times New Roman"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Practice sheet for scrum development</a:t>
           </a:r>
@@ -4140,14 +4150,14 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="17" width="3.6640625" style="6"/>
     <col min="18" max="18" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="3.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -4184,7 +4194,7 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4221,7 +4231,7 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4258,7 +4268,7 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4295,7 +4305,7 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4332,7 +4342,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4369,7 +4379,7 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4406,7 +4416,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4443,7 +4453,7 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4480,7 +4490,7 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4517,7 +4527,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4554,7 +4564,7 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4591,7 +4601,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4628,7 +4638,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4665,7 +4675,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4702,7 +4712,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4739,7 +4749,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4776,7 +4786,7 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4813,7 +4823,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4850,7 +4860,7 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4887,7 +4897,7 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4924,7 +4934,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4961,7 +4971,7 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4980,7 +4990,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -5000,7 +5010,7 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5037,7 +5047,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5055,7 +5065,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="31">
+      <c r="R25" s="11">
         <v>43327</v>
       </c>
       <c r="S25" s="3"/>
@@ -5076,7 +5086,7 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5113,7 +5123,7 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5150,13 +5160,13 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="3"/>
@@ -5187,7 +5197,7 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5224,14 +5234,14 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="8"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -5261,14 +5271,14 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="8"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -5298,17 +5308,17 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="1:35" ht="28.8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:35" ht="27" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="8"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -5316,7 +5326,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="14"/>
+      <c r="R32" s="15"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -5335,7 +5345,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
     </row>
-    <row r="33" spans="1:35" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5345,13 +5355,13 @@
       <c r="G33" s="3"/>
       <c r="H33" s="8"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -5372,7 +5382,7 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" spans="1:35" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:35" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5384,14 +5394,14 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="19"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="20"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -5409,7 +5419,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5424,11 +5434,11 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -5446,7 +5456,7 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5461,11 +5471,11 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="22"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -5483,7 +5493,7 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5498,11 +5508,11 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="20"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="21"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -5520,12 +5530,12 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="22"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -5535,9 +5545,9 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="S38" s="23"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="S38" s="24"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -5554,7 +5564,7 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5569,11 +5579,11 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -5591,480 +5601,480 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
     </row>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6094,484 +6104,484 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="245.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>131</v>
+      <c r="D4" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>124</v>
+      <c r="F6" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>125</v>
+      <c r="F11" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="232.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>135</v>
+      <c r="F17" s="29" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>113</v>
+      <c r="F18" s="28" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>108</v>
+      <c r="E19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="209.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="27" t="s">
-        <v>107</v>
+      <c r="F20" s="28" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>109</v>
+      <c r="F21" s="28" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>110</v>
+      <c r="F22" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>111</v>
+      <c r="F23" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>112</v>
+      <c r="F24" s="28" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
